--- a/src/main/resources/LinkedDocuments/KEM_EGLT_import.xlsx
+++ b/src/main/resources/LinkedDocuments/KEM_EGLT_import.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>* Indicates Required field</t>
   </si>
@@ -55,13 +55,96 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Delete the first three rows of text before saving your document to import </t>
-    </r>
+    <t>Chart*</t>
+  </si>
+  <si>
+    <t>Account Number*</t>
+  </si>
+  <si>
+    <t>Sub-Account</t>
+  </si>
+  <si>
+    <t>Object*</t>
+  </si>
+  <si>
+    <t>Sub-Object</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Org Ref Id</t>
+  </si>
+  <si>
+    <t>Amt*</t>
+  </si>
+  <si>
+    <t>Etran Code*</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose the appropriate tab below (From or To)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the data you are importing. </t>
+    </r>
+  </si>
+  <si>
+    <t>I (Income) or P (Principal)*</t>
+  </si>
+  <si>
+    <t>Zero-fill*</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>If your institution has set the ACCOUNTS_CAN_CROSS_CHARTS_IND parameter to NO, delete the Chart column before using this template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete the first </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>four</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rows of text before saving your document to import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -79,72 +162,13 @@
       </rPr>
       <t xml:space="preserve"> in csv format.  </t>
     </r>
-  </si>
-  <si>
-    <t>Chart*</t>
-  </si>
-  <si>
-    <t>Account Number*</t>
-  </si>
-  <si>
-    <t>Sub-Account</t>
-  </si>
-  <si>
-    <t>Object*</t>
-  </si>
-  <si>
-    <t>Sub-Object</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Org Ref Id</t>
-  </si>
-  <si>
-    <t>Amt*</t>
-  </si>
-  <si>
-    <t>Etran Code*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Choose the appropriate tab below (From or To)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the data you are importing. </t>
-    </r>
-  </si>
-  <si>
-    <t>I (Income) or P (Principal)*</t>
-  </si>
-  <si>
-    <t>Zero-fill*</t>
-  </si>
-  <si>
-    <t>Transaction Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +207,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,6 +242,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -540,22 +574,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -569,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,48 +621,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="L14" t="s">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="L15" t="s">
         <v>3</v>
       </c>
     </row>
